--- a/today_output.xlsx
+++ b/today_output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oana\Downloads\OneDrive_2022-01-10\Lab2 - ScrapeAmazonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC332B96-C20E-49F9-A315-50CD20301DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513444E4-0035-4906-A027-1A81A25F15DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{568C8646-00A0-41EC-9964-66C175CF68D2}"/>
   </bookViews>
@@ -671,10 +671,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -682,10 +682,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -693,10 +693,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -704,10 +704,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -715,10 +715,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -726,10 +726,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -748,10 +748,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
@@ -759,10 +759,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -770,10 +770,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
@@ -781,10 +781,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
@@ -803,10 +803,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
@@ -825,10 +825,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -836,10 +836,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
@@ -847,10 +847,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
@@ -858,10 +858,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
         <v>24</v>
@@ -869,10 +869,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
         <v>24</v>
@@ -880,10 +880,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
@@ -891,10 +891,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
@@ -902,10 +902,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
         <v>24</v>
@@ -913,10 +913,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
         <v>24</v>
@@ -924,10 +924,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
         <v>24</v>
@@ -935,10 +935,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
         <v>24</v>
@@ -946,10 +946,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
         <v>24</v>
@@ -957,10 +957,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
         <v>24</v>
@@ -968,10 +968,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
         <v>24</v>
@@ -979,10 +979,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
         <v>24</v>
@@ -990,10 +990,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
         <v>24</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
         <v>24</v>

--- a/today_output.xlsx
+++ b/today_output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Cursuri_FMI_an3\RPA\RPA-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oana\Desktop\Proiect RPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B4143F-DB2F-4CE8-8400-B452EAED0617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2359014-A9A8-4FEC-9C6E-2C896AC61F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{568C8646-00A0-41EC-9964-66C175CF68D2}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{568C8646-00A0-41EC-9964-66C175CF68D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,364 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="430">
+  <si>
+    <t>Drama</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Drama-9780545326995</t>
+  </si>
+  <si>
+    <t>13.56 GBP</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Drama-9780545326988</t>
+  </si>
+  <si>
+    <t>21.72 GBP</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Drama-9781546264781</t>
+  </si>
+  <si>
+    <t>15.98 GBP</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Drama-9780595296620</t>
+  </si>
+  <si>
+    <t>12.02 GBP</t>
+  </si>
+  <si>
+    <t>Drama...</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Drama----9781453639191</t>
+  </si>
+  <si>
+    <t>18.67 GBP</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Drama-9781441523921</t>
+  </si>
+  <si>
+    <t>19.48 GBP</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Drama-9781163822524</t>
+  </si>
+  <si>
+    <t>18.81 GBP</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Drama-9781104852313</t>
+  </si>
+  <si>
+    <t>35.21 GBP</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Drama-9781838662585</t>
+  </si>
+  <si>
+    <t>55.88 GBP</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Drama-9780548442449</t>
+  </si>
+  <si>
+    <t>21.29 GBP</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Drama-9781494029654</t>
+  </si>
+  <si>
+    <t>25.79 GBP</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Drama-9781500490768</t>
+  </si>
+  <si>
+    <t>13.13 GBP</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Drama-9781466268876</t>
+  </si>
+  <si>
+    <t>11.18 GBP</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Drama-9781258855451</t>
+  </si>
+  <si>
+    <t>38.64 GBP</t>
+  </si>
+  <si>
+    <t>No-Drama Discipline: The Whole-Brain Way to Calm the Chaos and Nurture Your Child's Developing Mind</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/No-Drama-Discipline--The-Whole-Brain-Way-to-Calm-the-Chaos-and-Nurture-Your-Child-s-Developing-Mind-9780345548061</t>
+  </si>
+  <si>
+    <t>14.21 GBP</t>
+  </si>
+  <si>
+    <t>Llama Llama Holiday Drama</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Llama-Llama-Holiday-Drama-9780670011612</t>
+  </si>
+  <si>
+    <t>18.46 GBP</t>
+  </si>
+  <si>
+    <t>Drama of the Gifted Child : The Search for the True Self</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Drama-of-the-Gifted-Child---The-Search-for-the-True-Self-9780465016907</t>
+  </si>
+  <si>
+    <t>12.67 GBP</t>
+  </si>
+  <si>
+    <t>Smart Girl's Guide: Drama, Rumors and Secrets : Staying True to Yourself in Changing Times</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Smart-Girl-s-Guide--Drama--Rumors-and-Secrets---Staying-True-to-Yourself-in-Changing-Times-9781609589035</t>
+  </si>
+  <si>
+    <t>12.55 GBP</t>
+  </si>
+  <si>
+    <t>Teen Girl's Survival Guide : Ten Tips for Making Friends, Avoiding Drama, and Coping with Social Stress</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Teen-Girl-s-Survival-Guide---Ten-Tips-for-Making-Friends--Avoiding-Drama--and-Coping-with-Social-Stress-9781626253063</t>
+  </si>
+  <si>
+    <t>15.42 GBP</t>
+  </si>
+  <si>
+    <t>No-Drama Discipline : The Whole-Brain Way to Calm the Chaos and Nurture Your Child's Developing Mind</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/No-Drama-Discipline---The-Whole-Brain-Way-to-Calm-the-Chaos-and-Nurture-Your-Child-s-Developing-Mind-9780345548047</t>
+  </si>
+  <si>
+    <t>23.12 GBP</t>
+  </si>
+  <si>
+    <t>Stop Caretaking the Borderline or Narcissist : How to End the Drama and Get on with Life</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Stop-Caretaking-the-Borderline-or-Narcissist---How-to-End-the-Drama-and-Get-on-with-Life-9781442238329</t>
+  </si>
+  <si>
+    <t>31.98 GBP</t>
+  </si>
+  <si>
+    <t>No Ego: How Leaders Can Cut the Cost of Workplace Drama, End Entitlement, and Drive Big Results</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/No-Ego--How-Leaders-Can-Cut-the-Cost-of-Workplace-Drama--End-Entitlement--and-Drive-Big-Results-9781250144065</t>
+  </si>
+  <si>
+    <t>20.25 GBP</t>
+  </si>
+  <si>
+    <t>21-Day Weight Loss Kickstart : Boost Metabolism, Lower Cholesterol, and Dramatically Improve Your Health</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/21-Day-Weight-Loss-Kickstart---Boost-Metabolism--Lower-Cholesterol--and-Dramatically-Improve-Your-Health-9780446583824</t>
+  </si>
+  <si>
+    <t>15.70 GBP</t>
+  </si>
+  <si>
+    <t>THE UNOFFICIAL DOWNTON ABBEY WORD SEARCH PUZZLE BOOK: RELIVE THE DRAMA</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/THE-UNOFFICIAL-DOWNTON-ABBEY-WORD-SEARCH-PUZZLE-BOOK--RELIVE-THE-DRAMA-9781705878552</t>
+  </si>
+  <si>
+    <t>12.65 GBP</t>
+  </si>
+  <si>
+    <t>Are You My Mother? : A Comic Drama</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Are-You-My-Mother----A-Comic-Drama-9780544002234</t>
+  </si>
+  <si>
+    <t>17.22 GBP</t>
+  </si>
+  <si>
+    <t>Basic Witches: How to Summon Success, Banish Drama, and Raise Hell with Your Coven</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Basic-Witches--How-to-Summon-Success--Banish-Drama--and-Raise-Hell-with-Your-Coven-9781594749773</t>
+  </si>
+  <si>
+    <t>16.42 GBP</t>
+  </si>
+  <si>
+    <t>Reality-Based Leadership : Ditch the Drama, Restore Sanity to the Workplace, and Turn Excuses into Results</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Reality-Based-Leadership---Ditch-the-Drama--Restore-Sanity-to-the-Workplace--and-Turn-Excuses-into-Results-9780470613504</t>
+  </si>
+  <si>
+    <t>21.23 GBP</t>
+  </si>
+  <si>
+    <t>Always Young and Restless: My Life On and Off America's #1 Daytime Drama</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Always-Young-and-Restless--My-Life-On-and-Off-America-s--1-Daytime-Drama-9781635766943</t>
+  </si>
+  <si>
+    <t>22.43 GBP</t>
+  </si>
+  <si>
+    <t>Body Love: Live in Balance, Weigh What You Want, and Free Yourself from Food Drama Forever</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Body-Love--Live-in-Balance--Weigh-What-You-Want--and-Free-Yourself-from-Food-Drama-Forever-9780062569141</t>
+  </si>
+  <si>
+    <t>25.64 GBP</t>
+  </si>
+  <si>
+    <t>Art of Dramatic Writing : Its Basis in the Creative Interpretation of Human Motives</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Art-of-Dramatic-Writing---Its-Basis-in-the-Creative-Interpretation-of-Human-Motives-9780671213329</t>
+  </si>
+  <si>
+    <t>15.80 GBP</t>
+  </si>
+  <si>
+    <t>The Best of Reader's Digest: Humor, Heart-Warming Stories, and Dramatic Tales</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/The-Best-of-Reader-s-Digest--Humor--Heart-Warming-Stories--and-Dramatic-Tales-9781621454724</t>
+  </si>
+  <si>
+    <t>25.17 GBP</t>
+  </si>
+  <si>
+    <t>The 104-Story Treehouse: Dental Dramas &amp; Jokes Galore! (The Treehouse Books)</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/The-104-Story-Treehouse--Dental-Dramas---Jokes-Galore---The-Treehouse-Books--9781250301499</t>
+  </si>
+  <si>
+    <t>15.00 GBP</t>
+  </si>
+  <si>
+    <t>Who Says Elephants Can't Dance? : Leading a Great Enterprise Through Dramatic Change</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Who-Says-Elephants-Can-t-Dance----Leading-a-Great-Enterprise-Through-Dramatic-Change-9780060523800</t>
+  </si>
+  <si>
+    <t>14.37 GBP</t>
+  </si>
+  <si>
+    <t>All My Sons : A Drama in Three Acts</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/All-My-Sons---A-Drama-in-Three-Acts-9780141185460</t>
+  </si>
+  <si>
+    <t>12.20 GBP</t>
+  </si>
+  <si>
+    <t>Outwitting Squirrels : 101 Cunning Stratagems to Reduce Dramatically the Egregious Misappropriation of Seed from Your Birdfeeder by Squirrels</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Outwitting-Squirrels---101-Cunning-Stratagems-to-Reduce-Dramatically-the-Egregious-Misappropriation-of-Seed-from-Your-Birdfeeder-by-Squirrels-9781613749418</t>
+  </si>
+  <si>
+    <t>15.49 GBP</t>
+  </si>
+  <si>
+    <t>Three Uses of the Knife : On the Nature and Purpose of Drama</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Three-Uses-of-the-Knife---On-the-Nature-and-Purpose-of-Drama-9780375704239</t>
+  </si>
+  <si>
+    <t>11.57 GBP</t>
+  </si>
+  <si>
+    <t>Tribulation Force : The Continuing Drama of Those Left Behind</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Tribulation-Force---The-Continuing-Drama-of-Those-Left-Behind-9781414334912</t>
+  </si>
+  <si>
+    <t>15.68 GBP</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Llama-Llama-Holiday-Drama-9780425291818</t>
+  </si>
+  <si>
+    <t>13.52 GBP</t>
+  </si>
+  <si>
+    <t>Disciplina sin lágrimas / No-Drama Discipline (Spanish Edition)</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Disciplina-sin-l-grimas---No-Drama-Discipline--Spanish-Edition--9788490704523</t>
+  </si>
+  <si>
+    <t>10.96 GBP</t>
+  </si>
+  <si>
+    <t>Drama at Mouseford</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Drama-at-Mouseford-9780545645324</t>
+  </si>
+  <si>
+    <t>9.29 GBP</t>
+  </si>
+  <si>
+    <t>Writing for Story : Craft Secrets of Dramatic Nonfiction</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Writing-for-Story---Craft-Secrets-of-Dramatic-Nonfiction-9780452272958</t>
+  </si>
+  <si>
+    <t>15.15 GBP</t>
+  </si>
+  <si>
+    <t>The Nurses: A Year of Secrets, Drama, and Miracles with the Heroes of the Hospital</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/The-Nurses--A-Year-of-Secrets--Drama--and-Miracles-with-the-Heroes-of-the-Hospital-9780761189251</t>
+  </si>
+  <si>
+    <t>15.77 GBP</t>
+  </si>
+  <si>
+    <t>Promise of Energy Psychology : Revolutionary Tools for Dramatic Personal Change</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Promise-of-Energy-Psychology---Revolutionary-Tools-for-Dramatic-Personal-Change-9781585424429</t>
+  </si>
+  <si>
+    <t>16.28 GBP</t>
+  </si>
+  <si>
+    <t>Blood Brothers : The Dramatic Story of a Palestinian Christian Working for Peace in Israel</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Blood-Brothers---The-Dramatic-Story-of-a-Palestinian-Christian-Working-for-Peace-in-Israel-9780801015731</t>
+  </si>
+  <si>
+    <t>13.79 GBP</t>
+  </si>
   <si>
     <t>Drama of Scripture : Finding Our Place in the Biblical Story</t>
   </si>
@@ -40,88 +397,931 @@
     <t>https://www.betterworldbooks.com/product/detail/Drama-of-Scripture---Finding-Our-Place-in-the-Biblical-Story-9780801049569</t>
   </si>
   <si>
-    <t>For Love Or Money?: Drama Fiction Love Money Sherrie D Cotton</t>
-  </si>
-  <si>
-    <t>https://www.betterworldbooks.com/product/detail/For-Love-Or-Money---Drama-Fiction-Love-Money-Sherrie-D-Cotton-9780692005484</t>
-  </si>
-  <si>
-    <t>Real and Phantom Pains: An Anthology of New Russian Drama</t>
-  </si>
-  <si>
-    <t>https://www.betterworldbooks.com/product/detail/Real-and-Phantom-Pains--An-Anthology-of-New-Russian-Drama-9780991504763</t>
-  </si>
-  <si>
-    <t>Social Dramas: Literature and Language in Early-Modern England.</t>
-  </si>
-  <si>
-    <t>https://www.betterworldbooks.com/product/detail/Social-Dramas--Literature-and-Language-in-Early-Modern-England--9780982806159</t>
-  </si>
-  <si>
-    <t>Performing the Art of Language Learning: Deepening the Learning Experience through Theatre and Drama</t>
-  </si>
-  <si>
-    <t>https://www.betterworldbooks.com/product/detail/Performing-the-Art-of-Language-Learning--Deepening-the-Learning-Experience-through-Theatre-and-Drama-9781939755155</t>
-  </si>
-  <si>
-    <t>My Father's Colors-The Drama-Filled Journey of Naya Mon Continues</t>
-  </si>
-  <si>
-    <t>https://www.betterworldbooks.com/product/detail/My-Father-s-Colors-The-Drama-Filled-Journey-of-Naya-Mon-Continues-9780615409412</t>
-  </si>
-  <si>
-    <t>Earth in Flower - The Divine Mystery of the Cambodian Dance Drama</t>
-  </si>
-  <si>
-    <t>https://www.betterworldbooks.com/product/detail/Earth-in-Flower---The-Divine-Mystery-of-the-Cambodian-Dance-Drama-9781934431290</t>
-  </si>
-  <si>
-    <t>Revolution in Penology : Rethinking the Society of Captives</t>
-  </si>
-  <si>
-    <t>https://www.betterworldbooks.com/product/detail/Revolution-in-Penology---Rethinking-the-Society-of-Captives-9780742563636</t>
-  </si>
-  <si>
-    <t>Phantoms of Ruthaer: Chronicles of Damage, Inc.</t>
-  </si>
-  <si>
-    <t>https://www.betterworldbooks.com/product/detail/Phantoms-of-Ruthaer--Chronicles-of-Damage--Inc--9781736823507</t>
-  </si>
-  <si>
-    <t>Arctic Migrants/Arctic Villagers : The Transformation of Inuit Settlement in the Central Arctic</t>
-  </si>
-  <si>
-    <t>https://www.betterworldbooks.com/product/detail/Arctic-Migrants-Arctic-Villagers---The-Transformation-of-Inuit-Settlement-in-the-Central-Arctic-9780773524057</t>
-  </si>
-  <si>
     <t>22.32 GBP</t>
   </si>
   <si>
-    <t>17.28 GBP</t>
-  </si>
-  <si>
-    <t>34.79 GBP</t>
-  </si>
-  <si>
-    <t>27.48 GBP</t>
-  </si>
-  <si>
-    <t>30.28 GBP</t>
-  </si>
-  <si>
-    <t>17.75 GBP</t>
-  </si>
-  <si>
-    <t>45.05 GBP</t>
-  </si>
-  <si>
-    <t>47.83 GBP</t>
-  </si>
-  <si>
-    <t>19.35 GBP</t>
-  </si>
-  <si>
-    <t>41.67 GBP</t>
+    <t>How To Break Free of the Drama Triangle and Victim Consciousness</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/How-To-Break-Free-of-the-Drama-Triangle--and--Victim-Consciousness-9781499100297</t>
+  </si>
+  <si>
+    <t>12.38 GBP</t>
+  </si>
+  <si>
+    <t>Dial Down the Drama: Reducing Conflict and Reconnecting with Your Teenage Daughter--A Guide for Mothers Everywhere</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Dial-Down-the-Drama--Reducing-Conflict-and-Reconnecting-with-Your-Teenage-Daughter--A-Guide-for-Mothers-Everywhere-9780814436554</t>
+  </si>
+  <si>
+    <t>19.32 GBP</t>
+  </si>
+  <si>
+    <t>Fearless: A Bestselling Saga of Empowerment and Family Drama</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Fearless--A-Bestselling-Saga-of-Empowerment-and-Family-Drama-9781420146158</t>
+  </si>
+  <si>
+    <t>10.53 GBP</t>
+  </si>
+  <si>
+    <t>Playwright's Guidebook : An Insightful Primer on the Art of Dramatic Writing</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Playwright-s-Guidebook---An-Insightful-Primer-on-the-Art-of-Dramatic-Writing-9780571199914</t>
+  </si>
+  <si>
+    <t>17.44 GBP</t>
+  </si>
+  <si>
+    <t>Mountain Men : The Dramatic History and Lore of the First Frontiersmen</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Mountain-Men---The-Dramatic-History-and-Lore-of-the-First-Frontiersmen-9781493018826</t>
+  </si>
+  <si>
+    <t>13.00 GBP</t>
+  </si>
+  <si>
+    <t>Acting Scenes for Kids and Tweens: 60 Original Comedy and Drama Scenes for Young Actors</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Acting-Scenes-for-Kids-and-Tweens--60-Original-Comedy-and-Drama-Scenes-for-Young-Actors-9780998151304</t>
+  </si>
+  <si>
+    <t>13.59 GBP</t>
+  </si>
+  <si>
+    <t>Lola Levine: Drama Queen</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Lola-Levine--Drama-Queen-9780316258425</t>
+  </si>
+  <si>
+    <t>7.62 GBP</t>
+  </si>
+  <si>
+    <t>3 Vital Questions: Transforming Workplace Drama</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/3-Vital-Questions--Transforming-Workplace-Drama-9780996871839</t>
+  </si>
+  <si>
+    <t>14.41 GBP</t>
+  </si>
+  <si>
+    <t>Unplanned : The Dramatic True Story of a Former Planned Parenthood Leader's Eye-Opening Journey Across the Life Line</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Unplanned---The-Dramatic-True-Story-of-a-Former-Planned-Parenthood-Leader-s-Eye-Opening-Journey-Across-the-Life-Line-9781414396545</t>
+  </si>
+  <si>
+    <t>15.35 GBP</t>
+  </si>
+  <si>
+    <t>Ellie Bean the Drama Queen: A Children's Book about Sensory Processing Disorder</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Ellie-Bean-the-Drama-Queen--A-Children-s-Book-about-Sensory-Processing-Disorder-9781935567271</t>
+  </si>
+  <si>
+    <t>9.81 GBP</t>
+  </si>
+  <si>
+    <t>Girls' Q&amp;a Book on Friendship : 50 Ways to Fix a Friendship Without the DRAMA</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Girls--Q-a-Book-on-Friendship---50-Ways-to-Fix-a-Friendship-Without-the-DRAMA-9781502353443</t>
+  </si>
+  <si>
+    <t>12.57 GBP</t>
+  </si>
+  <si>
+    <t>Writing for Emotional Impact : Advanced Dramatic Techniques to Attract, Engage and Fascinate the Reader from Beginning to End</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Writing-for-Emotional-Impact---Advanced-Dramatic-Techniques-to-Attract--Engage-and-Fascinate-the-Reader-from-Beginning-to-End-9781595940285</t>
+  </si>
+  <si>
+    <t>27.21 GBP</t>
+  </si>
+  <si>
+    <t>Unmistakable Impact : A Partnership Approach for Dramatically Improving Instruction</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Unmistakable-Impact---A-Partnership-Approach-for-Dramatically-Improving-Instruction-9781412994309</t>
+  </si>
+  <si>
+    <t>44.99 GBP</t>
+  </si>
+  <si>
+    <t>Planet Middle School: Helping Your Child through the Peer Pressure, Awkward Moments &amp; Emotional Drama</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Planet-Middle-School--Helping-Your-Child-through-the-Peer-Pressure--Awkward-Moments---Emotional-Drama-9780800727949</t>
+  </si>
+  <si>
+    <t>16.81 GBP</t>
+  </si>
+  <si>
+    <t>Monologues for Kids and Tweens: 100 Original Comedy and Drama Monologues for Young Actors</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Monologues-for-Kids-and-Tweens--100-Original-Comedy-and-Drama-Monologues-for-Young-Actors-9780998151328</t>
+  </si>
+  <si>
+    <t>13.62 GBP</t>
+  </si>
+  <si>
+    <t>Revolution Was Televised : The Cops, Crooks, Slingers, and Slayers Who Changed TV Drama Forever</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Revolution-Was-Televised---The-Cops--Crooks--Slingers--and-Slayers-Who-Changed-TV-Drama-Forever-9781476739670</t>
+  </si>
+  <si>
+    <t>16.24 GBP</t>
+  </si>
+  <si>
+    <t>Cruising Attitude : Tales of Crashpads, Crew Drama, and Crazy Passengers at 35,000 Feet</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Cruising-Attitude---Tales-of-Crashpads--Crew-Drama--and-Crazy-Passengers-at-35-000-Feet-9780061986468</t>
+  </si>
+  <si>
+    <t>Drama: Spanish Edition</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Drama--Spanish-Edition-9781338269161</t>
+  </si>
+  <si>
+    <t>13.23 GBP</t>
+  </si>
+  <si>
+    <t>Draw It With Me - The Dynamic Female Figure: Anatomical, Gestural, Comic &amp; Fine Art Studies of the Female Form in Dramatic Poses</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Draw-It-With-Me---The-Dynamic-Female-Figure--Anatomical--Gestural--Comic---Fine-Art-Studies-of-the-Female-Form-in-Dramatic-Poses-9781951374006</t>
+  </si>
+  <si>
+    <t>32.38 GBP</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Art-of-Dramatic-Writing---Its-Basis-in-the-Creative-Interpretation-of-Human-Motives-9789562915861</t>
+  </si>
+  <si>
+    <t>13.70 GBP</t>
+  </si>
+  <si>
+    <t>Forget the Drama, Avoid the Trauma: Your How-To (and How-not-to) Guide to Divorce</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Forget-the-Drama--Avoid-the-Trauma--Your-How-To--and-How-not-to--Guide-to-Divorce-9780578513515</t>
+  </si>
+  <si>
+    <t>16.19 GBP</t>
+  </si>
+  <si>
+    <t>TBH #3: TBH, Too Much Drama</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/TBH--3--TBH--Too-Much-Drama-9780062689962</t>
+  </si>
+  <si>
+    <t>13.90 GBP</t>
+  </si>
+  <si>
+    <t>The Drama Within: Psychodrama and Experiential Therapy</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/The-Drama-Within--Psychodrama-and-Experiential-Therapy-9781558742963</t>
+  </si>
+  <si>
+    <t>18.56 GBP</t>
+  </si>
+  <si>
+    <t>Expressive Therapies for Kids: An Art, Music, Play and Drama Toolbox for School-Based Counseling</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Expressive-Therapies-for-Kids--An-Art--Music--Play-and-Drama-Toolbox-for-School-Based-Counseling-9781683732495</t>
+  </si>
+  <si>
+    <t>24.33 GBP</t>
+  </si>
+  <si>
+    <t>Shoot Like a Girl: One Woman's Dramatic Fight in Afghanistan and on the Home Front</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Shoot-Like-a-Girl--One-Woman-s-Dramatic-Fight-in-Afghanistan-and-on-the-Home-Front-9781101988442</t>
+  </si>
+  <si>
+    <t>17.01 GBP</t>
+  </si>
+  <si>
+    <t>Drama Projects for the Middle School Classroom: A Collection of Theatre Activities for Young Actors</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Drama-Projects-for-the-Middle-School-Classroom--A-Collection-of-Theatre-Activities-for-Young-Actors-9781566081917</t>
+  </si>
+  <si>
+    <t>15.45 GBP</t>
+  </si>
+  <si>
+    <t>Shadow Box : A Drama in Two Acts</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Shadow-Box---A-Drama-in-Two-Acts-9780573616136</t>
+  </si>
+  <si>
+    <t>Stronger Than BPD: The Girl?s Guide to Taking Control of Intense Emotions, Drama, and Chaos Using DBT</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Stronger-Than-BPD--The-Girl-s-Guide-to-Taking-Control-of-Intense-Emotions--Drama--and-Chaos-Using-DBT-9781626254954</t>
+  </si>
+  <si>
+    <t>16.03 GBP</t>
+  </si>
+  <si>
+    <t>Drama High - Second Chance</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Drama-High---Second-Chance-9780758216359</t>
+  </si>
+  <si>
+    <t>12.13 GBP</t>
+  </si>
+  <si>
+    <t>Dramatic Verses</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Dramatic-Verses-9781357758134</t>
+  </si>
+  <si>
+    <t>28.61 GBP</t>
+  </si>
+  <si>
+    <t>Constructing the Canon of Early Modern Drama</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Constructing-the-Canon-of-Early-Modern-Drama-9781107030572</t>
+  </si>
+  <si>
+    <t>95.22 GBP</t>
+  </si>
+  <si>
+    <t>Junior High Drama: A Graphic Novel</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Junior-High-Drama--A-Graphic-Novel-9781496547125</t>
+  </si>
+  <si>
+    <t>11.34 GBP</t>
+  </si>
+  <si>
+    <t>The Middle School Mean Queens (Junior High Drama)</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/The-Middle-School-Mean-Queens--Junior-High-Drama--9781496574121</t>
+  </si>
+  <si>
+    <t>7.97 GBP</t>
+  </si>
+  <si>
+    <t>The Complete Poetical and Dramatic Works of Lord Byron: With a Comprehensive Outline of the Life of the Poet, Collected from the Latest and Most Relia</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/The-Complete-Poetical-and-Dramatic-Works-of-Lord-Byron--With-a-Comprehensive-Outline-of-the-Life-of-the-Poet--Collected-from-the-Latest-and-Most-Relia-9780342218257</t>
+  </si>
+  <si>
+    <t>48.02 GBP</t>
+  </si>
+  <si>
+    <t>The Eternal Drama: The Inner Meaning of Greek Mythology</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/The-Eternal-Drama--The-Inner-Meaning-of-Greek-Mythology-9781570626739</t>
+  </si>
+  <si>
+    <t>21.63 GBP</t>
+  </si>
+  <si>
+    <t>Drama Years : Real Girls Talk about Surviving Middle School -- Bullies, Brands, Body Image, and More</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Drama-Years---Real-Girls-Talk-about-Surviving-Middle-School----Bullies--Brands--Body-Image--and-More-9781451627916</t>
+  </si>
+  <si>
+    <t>14.66 GBP</t>
+  </si>
+  <si>
+    <t>Faust: A Lyric Drama in Five Acts</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Faust--A-Lyric-Drama-in-Five-Acts-9781357519865</t>
+  </si>
+  <si>
+    <t>24.50 GBP</t>
+  </si>
+  <si>
+    <t>Dictionnaire Dramatique, Contenant L'histoire Des Thtres, Les Rgles Du Genre Dramatique, Les Observations Des Matres Les Plus Clebres, &amp; Des ... - Pri</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Dictionnaire-Dramatique--Contenant-L-histoire-Des-Thtres--Les-Rgles-Du-Genre-Dramatique--Les-Observations-Des-Matres-Les-Plus-Clebres----Des-------Pri-9781294104193</t>
+  </si>
+  <si>
+    <t>32.83 GBP</t>
+  </si>
+  <si>
+    <t>The Unfolding Drama of the Bible</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/The-Unfolding-Drama-of-the-Bible-9780800635602</t>
+  </si>
+  <si>
+    <t>20.79 GBP</t>
+  </si>
+  <si>
+    <t>La Calprende's Romances and the Restoration Drama, Volumes 1-2</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/La-Calprende-s-Romances-and-the-Restoration-Drama--Volumes-1-2-9780342004706</t>
+  </si>
+  <si>
+    <t>30.22 GBP</t>
+  </si>
+  <si>
+    <t>Playboy of the Western World and Other Plays : Oxford English Drama</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Playboy-of-the-Western-World-and-Other-Plays---Oxford-English-Drama-9780199538058</t>
+  </si>
+  <si>
+    <t>11.99 GBP</t>
+  </si>
+  <si>
+    <t>Unaborted Socrates : A Dramatic Debate on the Issues Surrounding Abortion</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Unaborted-Socrates---A-Dramatic-Debate-on-the-Issues-Surrounding-Abortion-9780877848103</t>
+  </si>
+  <si>
+    <t>18.79 GBP</t>
+  </si>
+  <si>
+    <t>The Light Tower: A dramatic page-turning mystery about a daughter's search for the truth behind her mother's suicide and her own traumatic birth: two</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/The-Light-Tower--A-dramatic-page-turning-mystery-about-a-daughter-s-search-for-the-truth-behind-her-mother-s-suicide-and-her-own-traumatic-birth--two--9798646940569</t>
+  </si>
+  <si>
+    <t>26.18 GBP</t>
+  </si>
+  <si>
+    <t>The Gathering of the Forces; Editorials, Essays, Literary and Dramatic Reviews and Other Material Written by Walt Whitman as Editor of the Brooklyn ..</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/The-Gathering-of-the-Forces--Editorials--Essays--Literary-and-Dramatic-Reviews-and-Other-Material-Written-by-Walt-Whitman-as-Editor-of-the-Brooklyn----9781356381739</t>
+  </si>
+  <si>
+    <t>36.46 GBP</t>
+  </si>
+  <si>
+    <t>The Dramatic Works Of Sir William D'avenant: With Prefatory Memoir And Notes, Volume 2</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/The-Dramatic-Works-Of-Sir-William-D-avenant--With-Prefatory-Memoir-And-Notes--Volume-2-9781343432932</t>
+  </si>
+  <si>
+    <t>35.44 GBP</t>
+  </si>
+  <si>
+    <t>The Power of the Dark Side: Creating Great Villains, Dangerous Situations, &amp; Dramatic Conflict</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/The-Power-of-the-Dark-Side--Creating-Great-Villains--Dangerous-Situations----Dramatic-Conflict-9781932907438</t>
+  </si>
+  <si>
+    <t>20.34 GBP</t>
+  </si>
+  <si>
+    <t>French Braid Quilts : 14 Quick Quilts with Dramatic Results</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/French-Braid-Quilts---14-Quick-Quilts-with-Dramatic-Results-9781571203267</t>
+  </si>
+  <si>
+    <t>Esther, a Sacred Drama</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Esther--a-Sacred-Drama-9781359604279</t>
+  </si>
+  <si>
+    <t>28.66 GBP</t>
+  </si>
+  <si>
+    <t>Dramarama: Book 1</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Dramarama--Book-1-9798567083451</t>
+  </si>
+  <si>
+    <t>13.26 GBP</t>
+  </si>
+  <si>
+    <t>The Haunted Man: A Dramatization in Three Acts of Chas</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/The-Haunted-Man--A-Dramatization-in-Three-Acts-of-Chas-9780342553273</t>
+  </si>
+  <si>
+    <t>14.74 GBP</t>
+  </si>
+  <si>
+    <t>Essays Critical And Imaginative: Homer And His Translators. Greek Drama: The Agamemnon Of schylus</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Essays-Critical-And-Imaginative--Homer-And-His-Translators--Greek-Drama--The-Agamemnon-Of-schylus-9781348034902</t>
+  </si>
+  <si>
+    <t>40.20 GBP</t>
+  </si>
+  <si>
+    <t>Dramatic Opinions and Essays with an Apology: Containing as Well a Word on the Dramatic Opinions and Essays of Bernard Shaw by James Huneker, Volume 2</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Dramatic-Opinions-and-Essays-with-an-Apology--Containing-as-Well-a-Word-on-the-Dramatic-Opinions-and-Essays-of-Bernard-Shaw-by-James-Huneker--Volume-2-9781357694944</t>
+  </si>
+  <si>
+    <t>40.40 GBP</t>
+  </si>
+  <si>
+    <t>Tough Guys and Drama Queens : How Not to Get Blindsided by Your Child's Teen Years</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Tough-Guys-and-Drama-Queens---How-Not-to-Get-Blindsided-by-Your-Child-s-Teen-Years-9780849947292</t>
+  </si>
+  <si>
+    <t>16.13 GBP</t>
+  </si>
+  <si>
+    <t>A Dream of Liberty; A Drama in One Act</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/A-Dream-of-Liberty--A-Drama-in-One-Act-9781374614567</t>
+  </si>
+  <si>
+    <t>24.41 GBP</t>
+  </si>
+  <si>
+    <t>Scandals of Classic Hollywood : Sex, Deviance, and Drama from the Golden Age of American Cinema</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Scandals-of-Classic-Hollywood---Sex--Deviance--and-Drama-from-the-Golden-Age-of-American-Cinema-9780142180679</t>
+  </si>
+  <si>
+    <t>16.00 GBP</t>
+  </si>
+  <si>
+    <t>Alan Ayckbourn in Chekhov's Footsteps. A Study of Chekhovian Character Traits in Ayckbourn Drama: A Study of Chekhovian Character Traits in Ayckbourn</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Alan-Ayckbourn-in-Chekhov-s-Footsteps--A-Study-of-Chekhovian-Character-Traits--in-Ayckbourn-Drama--A-Study-of-Chekhovian-Character-Traits-in-Ayckbourn-9783838200187</t>
+  </si>
+  <si>
+    <t>26.04 GBP</t>
+  </si>
+  <si>
+    <t>Engagement with God : The Drama of Christian Discipleship</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Engagement-with-God---The-Drama-of-Christian-Discipleship-9781586171964</t>
+  </si>
+  <si>
+    <t>10.71 GBP</t>
+  </si>
+  <si>
+    <t>Once in Golconda : A True Drama of Wall Street 1920-1938</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Once-in-Golconda---A-True-Drama-of-Wall-Street-1920-1938-9780471357520</t>
+  </si>
+  <si>
+    <t>28.18 GBP</t>
+  </si>
+  <si>
+    <t>The Go-Go Years: The Drama and Crashing Finale of Wall Street's Bullish 60s</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/The-Go-Go-Years--The-Drama-and-Crashing-Finale-of-Wall-Street-s-Bullish-60s-9780471357544</t>
+  </si>
+  <si>
+    <t>30.45 GBP</t>
+  </si>
+  <si>
+    <t>The Dramatic Works of Moliere: Rendered Into English by Henri Van Laun; Illustrated with Nineteen Engravings on Steel from Paintings and Designs by ..</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/The-Dramatic-Works-of-Moliere--Rendered-Into-English-by-Henri-Van-Laun--Illustrated-with-Nineteen-Engravings-on-Steel-from-Paintings-and-Designs-by----9780342952427</t>
+  </si>
+  <si>
+    <t>22.51 GBP</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/The-Dramatic-Works-of-Moliere--Rendered-Into-English-by-Henri-Van-Laun--Illustrated-with-Nineteen-Engravings-on-Steel-from-Paintings-and-Designs-by----9780342952403</t>
+  </si>
+  <si>
+    <t>25.30 GBP</t>
+  </si>
+  <si>
+    <t>Human Drama: World History: From 500 to 1450 C.E.</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Human-Drama--World-History--From-500-to-1450-C-E--9781558762206</t>
+  </si>
+  <si>
+    <t>30.15 GBP</t>
+  </si>
+  <si>
+    <t>Covenant and Eschatology : The Divine Drama</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Covenant-and-Eschatology---The-Divine-Drama-9780664225018</t>
+  </si>
+  <si>
+    <t>30.57 GBP</t>
+  </si>
+  <si>
+    <t>Drama and Traditional Story for the Early Years</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Drama-and-Traditional-Story-for-the-Early-Years-9780415195362</t>
+  </si>
+  <si>
+    <t>54.61 GBP</t>
+  </si>
+  <si>
+    <t>The Wife's Choice: An emotional and totally unputdownable family drama</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/The-Wife-s-Choice--An-emotional-and-totally-unputdownable-family-drama-9781838886127</t>
+  </si>
+  <si>
+    <t>15.66 GBP</t>
+  </si>
+  <si>
+    <t>Hazel Kirke: A Domestic Comedy Drama In Four Acts</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Hazel-Kirke--A-Domestic-Comedy-Drama-In-Four-Acts-9781342810328</t>
+  </si>
+  <si>
+    <t>26.75 GBP</t>
+  </si>
+  <si>
+    <t>Poems and Dramas of George Cabot Lodge, Volume 2</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Poems-and-Dramas-of-George-Cabot-Lodge--Volume-2-9781358046148</t>
+  </si>
+  <si>
+    <t>39.99 GBP</t>
+  </si>
+  <si>
+    <t>Touching History: The Untold Story of the Drama That Unfolded in the Skies Over America on 9/11</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Touching-History--The-Untold-Story-of-the-Drama-That-Unfolded-in-the-Skies-Over-America-on-9-11-9781416559269</t>
+  </si>
+  <si>
+    <t>19.43 GBP</t>
+  </si>
+  <si>
+    <t>This Was Logging : Drama in the Northwest Timber Country</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/This-Was-Logging---Drama-in-the-Northwest-Timber-Country-9780887400353</t>
+  </si>
+  <si>
+    <t>16.77 GBP</t>
+  </si>
+  <si>
+    <t>The Dramatic Works of G. E. Lessing: Comedies</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/The-Dramatic-Works-of-G--E--Lessing--Comedies-9781357127558</t>
+  </si>
+  <si>
+    <t>38.48 GBP</t>
+  </si>
+  <si>
+    <t>My Husband's Lie: A page turning and emotional family drama</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/My-Husband-s-Lie--A-page-turning-and-emotional-family-drama-9781838886004</t>
+  </si>
+  <si>
+    <t>15.71 GBP</t>
+  </si>
+  <si>
+    <t>Rio Grande; An Original Drama in Three Acts</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Rio-Grande--An-Original-Drama-in-Three-Acts-9781359557353</t>
+  </si>
+  <si>
+    <t>26.44 GBP</t>
+  </si>
+  <si>
+    <t>Creative Haven Midnight Forest Coloring Book: Animal Designs on a Dramatic Black Background (Adult Coloring)</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Creative-Haven-Midnight-Forest-Coloring-Book--Animal-Designs-on-a-Dramatic-Black-Background--Adult-Coloring--9780486805009</t>
+  </si>
+  <si>
+    <t>8.75 GBP</t>
+  </si>
+  <si>
+    <t>Children's Dramas for the Church Year: Reproducible Dramas for Advent and Christmas</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Children-s-Dramas-for-the-Church-Year--Reproducible-Dramas-for-Advent-and-Christmas-9781426778674</t>
+  </si>
+  <si>
+    <t>9.66 GBP</t>
+  </si>
+  <si>
+    <t>Rashomon : A Drama in Two Acts</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Rashomon---A-Drama-in-Two-Acts-9780573614651</t>
+  </si>
+  <si>
+    <t>13.41 GBP</t>
+  </si>
+  <si>
+    <t>Masterpieces of 20th-Century American Drama</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Masterpieces-of-20th-Century-American-Drama-9780313332234</t>
+  </si>
+  <si>
+    <t>61.46 GBP</t>
+  </si>
+  <si>
+    <t>The Dramatic Works of John Webster, Volume 2</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/The-Dramatic-Works-of-John-Webster--Volume-2-9781341346491</t>
+  </si>
+  <si>
+    <t>33.77 GBP</t>
+  </si>
+  <si>
+    <t>Crossing Color : Transcultural Space and Place in Rita Dove's Poetry, Fiction, and Drama</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Crossing-Color---Transcultural-Space-and-Place-in-Rita-Dove-s-Poetry--Fiction--and-Drama-9780195134407</t>
+  </si>
+  <si>
+    <t>134.09 GBP</t>
+  </si>
+  <si>
+    <t>Wings : A Drama</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Wings---A-Drama-9780573618185</t>
+  </si>
+  <si>
+    <t>14.70 GBP</t>
+  </si>
+  <si>
+    <t>The Posthumous Dramatick Works of the Late Richard Cumberland, Esq: The Sybil, Or, the Elder Brutus. the Walloons. the Confession. the Passive Husband</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/The-Posthumous-Dramatick-Works-of-the-Late-Richard-Cumberland--Esq--The-Sybil--Or--the-Elder-Brutus--the-Walloons--the-Confession--the-Passive-Husband-9781358535062</t>
+  </si>
+  <si>
+    <t>38.92 GBP</t>
+  </si>
+  <si>
+    <t>Faust and Marguerite; A Romantic Drama in Three Acts. Translated from the French by William Robertson</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Faust-and-Marguerite--A-Romantic-Drama-in-Three-Acts--Translated-from-the-French-by-William-Robertson-9780343205263</t>
+  </si>
+  <si>
+    <t>24.24 GBP</t>
+  </si>
+  <si>
+    <t>Play Directing in the School : A Drama Director's Survival Guide</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Play-Directing-in-the-School---A-Drama-Director-s-Survival-Guide-9781566080361</t>
+  </si>
+  <si>
+    <t>18.37 GBP</t>
+  </si>
+  <si>
+    <t>Master of Persuasion: How to Dramatically Increase Sales, Get People to Say Yes, and Be a Positive Influence in the Lives of Others</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Master-of-Persuasion--How-to-Dramatically-Increase-Sales--Get-People-to-Say-Yes--and-Be-a-Positive-Influence-in-the-Lives-of-Others-9780998786568</t>
+  </si>
+  <si>
+    <t>15.18 GBP</t>
+  </si>
+  <si>
+    <t>Managing Narcissists, Blamers, Dramatics and More...: Research-Driven Scripts For Managing Difficult Personalities At Work (Leadership IQ Fast Reads)</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Managing-Narcissists--Blamers--Dramatics-and-More-----Research-Driven-Scripts-For-Managing-Difficult-Personalities-At-Work--Leadership-IQ-Fast-Reads--9781732048461</t>
+  </si>
+  <si>
+    <t>18.31 GBP</t>
+  </si>
+  <si>
+    <t>Faust: A Dramatic Poem</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Faust--A-Dramatic-Poem-9781356844135</t>
+  </si>
+  <si>
+    <t>29.93 GBP</t>
+  </si>
+  <si>
+    <t>One Monsoon in Mumbai: A Contemporary Novel with Romance, Comedy, Drama, and Suspense, Set in India.</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/One-Monsoon-in-Mumbai--A-Contemporary-Novel-with-Romance--Comedy--Drama--and-Suspense--Set-in-India--9781733798624</t>
+  </si>
+  <si>
+    <t>18.58 GBP</t>
+  </si>
+  <si>
+    <t>The Shepherdess of Lourdes, Or, the Blind Princess: A Drama in Five Acts</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/The-Shepherdess-of-Lourdes--Or--the-Blind-Princess--A-Drama-in-Five-Acts-9781356722600</t>
+  </si>
+  <si>
+    <t>26.55 GBP</t>
+  </si>
+  <si>
+    <t>Creative Haven Sea Life Wonders Coloring Book: Amazing Designs on a Dramatic Black Background (Adult Coloring)</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Creative-Haven-Sea-Life-Wonders-Coloring-Book--Amazing-Designs-on-a-Dramatic-Black-Background--Adult-Coloring--9780486809489</t>
+  </si>
+  <si>
+    <t>Rewrite : A Step-by-Step Guide to Strengthen Structure, Characters, and Drama in Your Screenplay</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Rewrite---A-Step-by-Step-Guide-to-Strengthen-Structure--Characters--and-Drama-in-Your-Screenplay-9781615931576</t>
+  </si>
+  <si>
+    <t>19.52 GBP</t>
+  </si>
+  <si>
+    <t>How to Write a Damn Good Novel : A Step-By-Step No Nonsense Guide to Dramatic Storytelling</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/How-to-Write-a-Damn-Good-Novel---A-Step-By-Step-No-Nonsense-Guide-to-Dramatic-Storytelling-9780312010447</t>
+  </si>
+  <si>
+    <t>24.98 GBP</t>
+  </si>
+  <si>
+    <t>A Tale of Love and Destiny: The dramatic life of a passionate heroine.</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/A-Tale-of-Love-and-Destiny--The-dramatic-life-of-a-passionate-heroine--9781727330007</t>
+  </si>
+  <si>
+    <t>18.88 GBP</t>
+  </si>
+  <si>
+    <t>Poetics of Biblical Narrative : Ideological Literature and the Drama of Reading</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Poetics-of-Biblical-Narrative---Ideological-Literature-and-the-Drama-of-Reading-9780253204530</t>
+  </si>
+  <si>
+    <t>47.08 GBP</t>
+  </si>
+  <si>
+    <t>Study Guide: Ditch the Drama</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Study-Guide--Ditch-the-Drama-9780692293126</t>
+  </si>
+  <si>
+    <t>17.02 GBP</t>
+  </si>
+  <si>
+    <t>The Drama's Leve: Or, A Peep At The Past. Blue Beard. The Sleeping Beauty In The Wood. Beauty And The Beast. The White Cat. Fortunio, And His Seven ..</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/The-Drama-s-Leve--Or--A-Peep-At-The-Past--Blue-Beard--The-Sleeping-Beauty-In-The-Wood--Beauty-And-The-Beast--The-White-Cat--Fortunio--And-His-Seven----9781343311978</t>
+  </si>
+  <si>
+    <t>35.54 GBP</t>
+  </si>
+  <si>
+    <t>Drama Start Two Drama Activities and Plays for Children (Ages 9-12)</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Drama-Start-Two-Drama-Activities-and-Plays-for-Children--Ages-9-12--9780956896612</t>
+  </si>
+  <si>
+    <t>12.51 GBP</t>
+  </si>
+  <si>
+    <t>His First Wife's Secret: A powerful and utterly gripping emotional drama</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/His-First-Wife-s-Secret--A-powerful-and-utterly-gripping-emotional-drama-9781838887902</t>
+  </si>
+  <si>
+    <t>Women Lie Men Lie part 3: A Crime Drama Novel - Street Justice in the Atlanta 'Hood</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Women-Lie-Men-Lie-part-3--A-Crime-Drama-Novel---Street-Justice-in-the-Atlanta--Hood-9780996951128</t>
+  </si>
+  <si>
+    <t>16.09 GBP</t>
+  </si>
+  <si>
+    <t>No Drama Llama: 180 Pages College-Ruled | Composition Book for Students | High School Composition Book | Premium Notebook</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/No-Drama-Llama--180-Pages-College-Ruled---Composition-Book-for-Students---High-School-Composition-Book---Premium-Notebook-9781686991394</t>
+  </si>
+  <si>
+    <t>13.97 GBP</t>
+  </si>
+  <si>
+    <t>True Blue : The Dramatic History of the Los Angeles Dodgers, Told by the Men Who Lived It</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/True-Blue---The-Dramatic-History-of-the-Los-Angeles-Dodgers--Told-by-the-Men-Who-Lived-It-9780380806157</t>
+  </si>
+  <si>
+    <t>16.88 GBP</t>
+  </si>
+  <si>
+    <t>Works of Jules Verne: Jules Verne. a Drama in the Air. the Watch's Soul. a Winter in the Ice. the Pearl of Lima. the Mutineers. Five Weeks in a Balloo</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Works-of-Jules-Verne--Jules-Verne--a-Drama-in-the-Air--the-Watch-s-Soul--a-Winter-in-the-Ice--the-Pearl-of-Lima--the-Mutineers--Five-Weeks-in-a-Balloo-9781340630218</t>
+  </si>
+  <si>
+    <t>38.63 GBP</t>
+  </si>
+  <si>
+    <t>Aristotle on Dramatic Musical Composition: The Real Role of Literature, Catharsis, Music and Dance in the Poetics</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Aristotle-on-Dramatic-Musical-Composition--The-Real-Role-of-Literature--Catharsis--Music-and-Dance-in-the-Poetics-9780999704936</t>
+  </si>
+  <si>
+    <t>71.72 GBP</t>
+  </si>
+  <si>
+    <t>Drama Games: Techniques for Self-Development</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Drama-Games--Techniques-for-Self-Development-9781558740211</t>
+  </si>
+  <si>
+    <t>15.97 GBP</t>
+  </si>
+  <si>
+    <t>The Biblical Drama of Medieval Europe</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/The-Biblical-Drama-of-Medieval-Europe-9780521412919</t>
+  </si>
+  <si>
+    <t>79.74 GBP</t>
+  </si>
+  <si>
+    <t>The Elizabethan Jig and Related Song Drama</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/The-Elizabethan-Jig-and-Related-Song-Drama-9781258267193</t>
+  </si>
+  <si>
+    <t>52.58 GBP</t>
+  </si>
+  <si>
+    <t>Pocahontas: A Historical Drama</t>
+  </si>
+  <si>
+    <t>https://www.betterworldbooks.com/product/detail/Pocahontas--A-Historical-Drama-9780343590116</t>
+  </si>
+  <si>
+    <t>32.14 GBP</t>
   </si>
 </sst>
 </file>
@@ -473,7 +1673,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B5752C-75D1-464D-83D9-7FC5F2FF2539}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -487,106 +1687,1646 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>143</v>
+      </c>
+      <c r="B53" t="s">
+        <v>144</v>
+      </c>
+      <c r="C53" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>146</v>
+      </c>
+      <c r="B54" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>149</v>
+      </c>
+      <c r="B55" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>152</v>
+      </c>
+      <c r="B56" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>155</v>
+      </c>
+      <c r="B57" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>158</v>
+      </c>
+      <c r="B58" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>161</v>
+      </c>
+      <c r="B59" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>167</v>
+      </c>
+      <c r="B61" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62" t="s">
+        <v>171</v>
+      </c>
+      <c r="C62" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>172</v>
+      </c>
+      <c r="B63" t="s">
+        <v>173</v>
+      </c>
+      <c r="C63" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>175</v>
+      </c>
+      <c r="B64" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" t="s">
+        <v>178</v>
+      </c>
+      <c r="C65" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>180</v>
+      </c>
+      <c r="B66" t="s">
+        <v>181</v>
+      </c>
+      <c r="C66" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>183</v>
+      </c>
+      <c r="B67" t="s">
+        <v>184</v>
+      </c>
+      <c r="C67" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>186</v>
+      </c>
+      <c r="B68" t="s">
+        <v>187</v>
+      </c>
+      <c r="C68" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>189</v>
+      </c>
+      <c r="B69" t="s">
+        <v>190</v>
+      </c>
+      <c r="C69" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>192</v>
+      </c>
+      <c r="B70" t="s">
+        <v>193</v>
+      </c>
+      <c r="C70" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>195</v>
+      </c>
+      <c r="B71" t="s">
+        <v>196</v>
+      </c>
+      <c r="C71" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>198</v>
+      </c>
+      <c r="B72" t="s">
+        <v>199</v>
+      </c>
+      <c r="C72" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>200</v>
+      </c>
+      <c r="B73" t="s">
+        <v>201</v>
+      </c>
+      <c r="C73" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>203</v>
+      </c>
+      <c r="B74" t="s">
+        <v>204</v>
+      </c>
+      <c r="C74" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>206</v>
+      </c>
+      <c r="B75" t="s">
+        <v>207</v>
+      </c>
+      <c r="C75" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>209</v>
+      </c>
+      <c r="B76" t="s">
+        <v>210</v>
+      </c>
+      <c r="C76" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>212</v>
+      </c>
+      <c r="B77" t="s">
+        <v>213</v>
+      </c>
+      <c r="C77" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>215</v>
+      </c>
+      <c r="B78" t="s">
+        <v>216</v>
+      </c>
+      <c r="C78" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>218</v>
+      </c>
+      <c r="B79" t="s">
+        <v>219</v>
+      </c>
+      <c r="C79" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>221</v>
+      </c>
+      <c r="B80" t="s">
+        <v>222</v>
+      </c>
+      <c r="C80" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>224</v>
+      </c>
+      <c r="B81" t="s">
+        <v>225</v>
+      </c>
+      <c r="C81" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>227</v>
+      </c>
+      <c r="B82" t="s">
+        <v>228</v>
+      </c>
+      <c r="C82" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>230</v>
+      </c>
+      <c r="B83" t="s">
+        <v>231</v>
+      </c>
+      <c r="C83" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>233</v>
+      </c>
+      <c r="B84" t="s">
+        <v>234</v>
+      </c>
+      <c r="C84" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>236</v>
+      </c>
+      <c r="B85" t="s">
+        <v>237</v>
+      </c>
+      <c r="C85" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>239</v>
+      </c>
+      <c r="B86" t="s">
+        <v>240</v>
+      </c>
+      <c r="C86" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>242</v>
+      </c>
+      <c r="B87" t="s">
+        <v>243</v>
+      </c>
+      <c r="C87" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>245</v>
+      </c>
+      <c r="B88" t="s">
+        <v>246</v>
+      </c>
+      <c r="C88" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>248</v>
+      </c>
+      <c r="B89" t="s">
+        <v>249</v>
+      </c>
+      <c r="C89" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>251</v>
+      </c>
+      <c r="B90" t="s">
+        <v>252</v>
+      </c>
+      <c r="C90" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>254</v>
+      </c>
+      <c r="B91" t="s">
+        <v>255</v>
+      </c>
+      <c r="C91" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>257</v>
+      </c>
+      <c r="B92" t="s">
+        <v>258</v>
+      </c>
+      <c r="C92" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>259</v>
+      </c>
+      <c r="B93" t="s">
+        <v>260</v>
+      </c>
+      <c r="C93" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>262</v>
+      </c>
+      <c r="B94" t="s">
+        <v>263</v>
+      </c>
+      <c r="C94" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>265</v>
+      </c>
+      <c r="B95" t="s">
+        <v>266</v>
+      </c>
+      <c r="C95" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>268</v>
+      </c>
+      <c r="B96" t="s">
+        <v>269</v>
+      </c>
+      <c r="C96" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>271</v>
+      </c>
+      <c r="B97" t="s">
+        <v>272</v>
+      </c>
+      <c r="C97" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>274</v>
+      </c>
+      <c r="B98" t="s">
+        <v>275</v>
+      </c>
+      <c r="C98" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>277</v>
+      </c>
+      <c r="B99" t="s">
+        <v>278</v>
+      </c>
+      <c r="C99" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>280</v>
+      </c>
+      <c r="B100" t="s">
+        <v>281</v>
+      </c>
+      <c r="C100" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>283</v>
+      </c>
+      <c r="B101" t="s">
+        <v>284</v>
+      </c>
+      <c r="C101" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>286</v>
+      </c>
+      <c r="B102" t="s">
+        <v>287</v>
+      </c>
+      <c r="C102" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>289</v>
+      </c>
+      <c r="B103" t="s">
+        <v>290</v>
+      </c>
+      <c r="C103" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>292</v>
+      </c>
+      <c r="B104" t="s">
+        <v>293</v>
+      </c>
+      <c r="C104" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>295</v>
+      </c>
+      <c r="B105" t="s">
+        <v>296</v>
+      </c>
+      <c r="C105" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>295</v>
+      </c>
+      <c r="B106" t="s">
+        <v>298</v>
+      </c>
+      <c r="C106" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>300</v>
+      </c>
+      <c r="B107" t="s">
+        <v>301</v>
+      </c>
+      <c r="C107" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>303</v>
+      </c>
+      <c r="B108" t="s">
+        <v>304</v>
+      </c>
+      <c r="C108" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>306</v>
+      </c>
+      <c r="B109" t="s">
+        <v>307</v>
+      </c>
+      <c r="C109" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>309</v>
+      </c>
+      <c r="B110" t="s">
+        <v>310</v>
+      </c>
+      <c r="C110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>312</v>
+      </c>
+      <c r="B111" t="s">
+        <v>313</v>
+      </c>
+      <c r="C111" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>315</v>
+      </c>
+      <c r="B112" t="s">
+        <v>316</v>
+      </c>
+      <c r="C112" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>318</v>
+      </c>
+      <c r="B113" t="s">
+        <v>319</v>
+      </c>
+      <c r="C113" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>321</v>
+      </c>
+      <c r="B114" t="s">
+        <v>322</v>
+      </c>
+      <c r="C114" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>324</v>
+      </c>
+      <c r="B115" t="s">
+        <v>325</v>
+      </c>
+      <c r="C115" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>327</v>
+      </c>
+      <c r="B116" t="s">
+        <v>328</v>
+      </c>
+      <c r="C116" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>330</v>
+      </c>
+      <c r="B117" t="s">
+        <v>331</v>
+      </c>
+      <c r="C117" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>333</v>
+      </c>
+      <c r="B118" t="s">
+        <v>334</v>
+      </c>
+      <c r="C118" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>336</v>
+      </c>
+      <c r="B119" t="s">
+        <v>337</v>
+      </c>
+      <c r="C119" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>339</v>
+      </c>
+      <c r="B120" t="s">
+        <v>340</v>
+      </c>
+      <c r="C120" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>342</v>
+      </c>
+      <c r="B121" t="s">
+        <v>343</v>
+      </c>
+      <c r="C121" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>345</v>
+      </c>
+      <c r="B122" t="s">
+        <v>346</v>
+      </c>
+      <c r="C122" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>348</v>
+      </c>
+      <c r="B123" t="s">
+        <v>349</v>
+      </c>
+      <c r="C123" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>351</v>
+      </c>
+      <c r="B124" t="s">
+        <v>352</v>
+      </c>
+      <c r="C124" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>354</v>
+      </c>
+      <c r="B125" t="s">
+        <v>355</v>
+      </c>
+      <c r="C125" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>357</v>
+      </c>
+      <c r="B126" t="s">
+        <v>358</v>
+      </c>
+      <c r="C126" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>360</v>
+      </c>
+      <c r="B127" t="s">
+        <v>361</v>
+      </c>
+      <c r="C127" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>363</v>
+      </c>
+      <c r="B128" t="s">
+        <v>364</v>
+      </c>
+      <c r="C128" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>366</v>
+      </c>
+      <c r="B129" t="s">
+        <v>367</v>
+      </c>
+      <c r="C129" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>369</v>
+      </c>
+      <c r="B130" t="s">
+        <v>370</v>
+      </c>
+      <c r="C130" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>372</v>
+      </c>
+      <c r="B131" t="s">
+        <v>373</v>
+      </c>
+      <c r="C131" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>375</v>
+      </c>
+      <c r="B132" t="s">
+        <v>376</v>
+      </c>
+      <c r="C132" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>378</v>
+      </c>
+      <c r="B133" t="s">
+        <v>379</v>
+      </c>
+      <c r="C133" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>380</v>
+      </c>
+      <c r="B134" t="s">
+        <v>381</v>
+      </c>
+      <c r="C134" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>383</v>
+      </c>
+      <c r="B135" t="s">
+        <v>384</v>
+      </c>
+      <c r="C135" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>386</v>
+      </c>
+      <c r="B136" t="s">
+        <v>387</v>
+      </c>
+      <c r="C136" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>389</v>
+      </c>
+      <c r="B137" t="s">
+        <v>390</v>
+      </c>
+      <c r="C137" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>392</v>
+      </c>
+      <c r="B138" t="s">
+        <v>393</v>
+      </c>
+      <c r="C138" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>395</v>
+      </c>
+      <c r="B139" t="s">
+        <v>396</v>
+      </c>
+      <c r="C139" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>398</v>
+      </c>
+      <c r="B140" t="s">
+        <v>399</v>
+      </c>
+      <c r="C140" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>401</v>
+      </c>
+      <c r="B141" t="s">
+        <v>402</v>
+      </c>
+      <c r="C141" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>403</v>
+      </c>
+      <c r="B142" t="s">
+        <v>404</v>
+      </c>
+      <c r="C142" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>406</v>
+      </c>
+      <c r="B143" t="s">
+        <v>407</v>
+      </c>
+      <c r="C143" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>409</v>
+      </c>
+      <c r="B144" t="s">
+        <v>410</v>
+      </c>
+      <c r="C144" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>412</v>
+      </c>
+      <c r="B145" t="s">
+        <v>413</v>
+      </c>
+      <c r="C145" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>415</v>
+      </c>
+      <c r="B146" t="s">
+        <v>416</v>
+      </c>
+      <c r="C146" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>418</v>
+      </c>
+      <c r="B147" t="s">
+        <v>419</v>
+      </c>
+      <c r="C147" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>421</v>
+      </c>
+      <c r="B148" t="s">
+        <v>422</v>
+      </c>
+      <c r="C148" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>424</v>
+      </c>
+      <c r="B149" t="s">
+        <v>425</v>
+      </c>
+      <c r="C149" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>427</v>
+      </c>
+      <c r="B150" t="s">
+        <v>428</v>
+      </c>
+      <c r="C150" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>
